--- a/Algorithm_tester/data_autosave/synth_snr_dB.xlsx
+++ b/Algorithm_tester/data_autosave/synth_snr_dB.xlsx
@@ -578,7 +578,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.989696502685547</v>
+        <v>2.992391586303711</v>
       </c>
       <c r="H3" t="n">
         <v>-22.33150088397607</v>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>10.94245910644531</v>
+        <v>9.96631383895874</v>
       </c>
       <c r="H4" t="n">
         <v>-10.67251947172889</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>24.9330997467041</v>
+        <v>23.05305004119873</v>
       </c>
       <c r="H5" t="n">
         <v>-8.141834670385995</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>286.6013050079346</v>
+        <v>131.6373348236084</v>
       </c>
       <c r="H6" t="n">
         <v>-6.626887217316474</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>743.42143535614</v>
+        <v>375.9987592697144</v>
       </c>
       <c r="H7" t="n">
         <v>-4.961365363494232</v>
@@ -773,7 +773,7 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1721.882104873657</v>
+        <v>4757.980346679688</v>
       </c>
       <c r="H8" t="n">
         <v>-3.181320530181872</v>
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.943443298339844</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>-45.52871382558996</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.986512660980225</v>
+        <v>2.993583679199219</v>
       </c>
       <c r="H10" t="n">
         <v>-35.33598470555956</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>13.99517059326172</v>
+        <v>9.972274303436279</v>
       </c>
       <c r="H11" t="n">
         <v>-24.67573366176961</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>24.97899532318115</v>
+        <v>21.32785320281982</v>
       </c>
       <c r="H12" t="n">
         <v>-19.4458298354025</v>
@@ -972,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>227.111279964447</v>
+        <v>97.01645374298096</v>
       </c>
       <c r="H13" t="n">
         <v>-14.85770047629924</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>687.2166037559509</v>
+        <v>347.1755862236022</v>
       </c>
       <c r="H14" t="n">
         <v>-10.9891064326135</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2326.582908630371</v>
+        <v>3688.81368637085</v>
       </c>
       <c r="H15" t="n">
         <v>-7.167956638966913</v>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.945373535156251</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="H17" t="n">
         <v>-44.93196285813087</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>11.90841197967529</v>
+        <v>8.978068828582764</v>
       </c>
       <c r="H18" t="n">
         <v>-28.72195453426284</v>
@@ -1210,7 +1210,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>24.4138240814209</v>
+        <v>21.84164524078369</v>
       </c>
       <c r="H19" t="n">
         <v>-20.86023408198391</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>227.8138995170593</v>
+        <v>101.9659042358398</v>
       </c>
       <c r="H20" t="n">
         <v>-17.24177128282749</v>
@@ -1288,7 +1288,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>659.0248107910155</v>
+        <v>349.2879986763</v>
       </c>
       <c r="H21" t="n">
         <v>-12.09288258958241</v>
@@ -1327,7 +1327,7 @@
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>1424.914598464966</v>
+        <v>5334.918260574341</v>
       </c>
       <c r="H22" t="n">
         <v>-9.579119386707687</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>4.985558986663818</v>
+        <v>2.992868423461914</v>
       </c>
       <c r="H24" t="n">
         <v>-40.81316661446083</v>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>11.10756397247314</v>
+        <v>9.878277778625488</v>
       </c>
       <c r="H25" t="n">
         <v>-24.55360878730608</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>24.63102340698242</v>
+        <v>21.55590057373047</v>
       </c>
       <c r="H26" t="n">
         <v>-18.09314021606095</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>213.0447030067444</v>
+        <v>99.01010990142822</v>
       </c>
       <c r="H27" t="n">
         <v>-12.82572644746412</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>692.5893902778622</v>
+        <v>353.0552625656128</v>
       </c>
       <c r="H28" t="n">
         <v>-8.861786278335323</v>
@@ -1604,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>6242.477416992188</v>
+        <v>467.14186668396</v>
       </c>
       <c r="H29" t="n">
         <v>-2.13557309428383</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3.988742828369141</v>
+        <v>2.992391586303711</v>
       </c>
       <c r="H31" t="n">
         <v>-17.00990368325762</v>
@@ -1725,7 +1725,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>9.975433349609375</v>
+        <v>9.551823139190674</v>
       </c>
       <c r="H32" t="n">
         <v>-10.79730769522136</v>
@@ -1764,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>23.96905422210693</v>
+        <v>22.80044555664062</v>
       </c>
       <c r="H33" t="n">
         <v>-8.811205799682897</v>
@@ -1803,7 +1803,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>127.717137336731</v>
+        <v>125.163197517395</v>
       </c>
       <c r="H34" t="n">
         <v>-6.761410231047934</v>
@@ -1842,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>635.0296139717102</v>
+        <v>356.0901522636412</v>
       </c>
       <c r="H35" t="n">
         <v>-4.685592921636662</v>
@@ -1881,7 +1881,7 @@
         <v>1</v>
       </c>
       <c r="G36" t="n">
-        <v>888.958215713501</v>
+        <v>20832.29231834412</v>
       </c>
       <c r="H36" t="n">
         <v>-2.727180357512142</v>
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.985954284667969</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>-65.05476353360359</v>
@@ -1963,7 +1963,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.986047744750977</v>
+        <v>2.994060516357422</v>
       </c>
       <c r="H38" t="n">
         <v>-39.40481939914351</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>13.98313045501709</v>
+        <v>10.00666618347168</v>
       </c>
       <c r="H39" t="n">
         <v>-25.84925872210696</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>24.6589183807373</v>
+        <v>21.94154262542725</v>
       </c>
       <c r="H40" t="n">
         <v>-19.65642812635976</v>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.2140831947327</v>
+        <v>101.9284129142761</v>
       </c>
       <c r="H41" t="n">
         <v>-15.05214905159302</v>
@@ -2119,7 +2119,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>639.280068874359</v>
+        <v>349.9279975891113</v>
       </c>
       <c r="H42" t="n">
         <v>-10.98981215791243</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>898.2930183410645</v>
+        <v>171212.8462791443</v>
       </c>
       <c r="H43" t="n">
         <v>-9.57946628548806</v>
@@ -2240,7 +2240,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>4.949295520782471</v>
+        <v>2.994763851165771</v>
       </c>
       <c r="H45" t="n">
         <v>-40.28536243519111</v>
@@ -2279,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>12.52859830856323</v>
+        <v>9.972810745239258</v>
       </c>
       <c r="H46" t="n">
         <v>-26.93639427779717</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>24.69825744628906</v>
+        <v>22.09532260894775</v>
       </c>
       <c r="H47" t="n">
         <v>-19.90456904594567</v>
@@ -2357,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>153.7202596664429</v>
+        <v>106.1887145042419</v>
       </c>
       <c r="H48" t="n">
         <v>-15.45422482946321</v>
@@ -2396,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>636.4370226860045</v>
+        <v>350.9191274642944</v>
       </c>
       <c r="H49" t="n">
         <v>-11.02515584972867</v>
@@ -2435,7 +2435,7 @@
         <v>1</v>
       </c>
       <c r="G50" t="n">
-        <v>805.2806854248047</v>
+        <v>285359.3547344208</v>
       </c>
       <c r="H50" t="n">
         <v>-7.98861066284645</v>
@@ -2517,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>4.983901977539062</v>
+        <v>2.996444702148438</v>
       </c>
       <c r="H52" t="n">
         <v>-35.45746764471951</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>12.17007637023926</v>
+        <v>9.974002838134766</v>
       </c>
       <c r="H53" t="n">
         <v>-24.90615307415656</v>
@@ -2595,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>24.93584156036377</v>
+        <v>21.94118499755859</v>
       </c>
       <c r="H54" t="n">
         <v>-18.93786521716053</v>
@@ -2634,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>218.6505794525146</v>
+        <v>95.79211473464966</v>
       </c>
       <c r="H55" t="n">
         <v>-13.85705238936638</v>
@@ -2673,7 +2673,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>641.6736125946045</v>
+        <v>348.8191366195679</v>
       </c>
       <c r="H56" t="n">
         <v>-10.16638495048442</v>
@@ -2712,7 +2712,7 @@
         <v>1</v>
       </c>
       <c r="G57" t="n">
-        <v>572828.8283348083</v>
+        <v>750.2181529998779</v>
       </c>
       <c r="H57" t="n">
         <v>-3.123097089004272</v>
